--- a/SPPSApi/Doc/Template/FS0603_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0603_Export.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>同步时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,18 +74,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>旧型开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>实施年月(年限)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>供应商编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>供应商使用开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,14 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>供应商出荷地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补给收容数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>箱种</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>体积（mm³)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>受入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,6 +159,26 @@
   </si>
   <si>
     <t>强制订货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出荷场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收容数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体积（m³)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商包装</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -202,7 +202,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,13 +211,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,11 +228,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -540,137 +535,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO1"/>
+  <dimension ref="A1:AW1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="3"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:49" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>40</v>
       </c>
     </row>

--- a/SPPSApi/Doc/Template/FS0603_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0603_Export.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -26,18 +26,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>包装工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>补给品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>品名(英文)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>车种代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,15 +50,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内外区分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OE=SP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>号旧区分</t>
+    <t>实施年月(年限)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长（mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽（mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高（mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发注工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内制工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前工程通过时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自工程出货时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订货方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制订货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出荷场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收容数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体积（m³)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商包装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>号旧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -74,111 +162,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实施年月(年限)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商使用开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商使用结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>箱种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长（mm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宽（mm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高（mm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发注工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内制工程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过工程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前工程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前工程通过时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自工程出货时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>照片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据区分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订货方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强制订货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出荷场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收容数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体积（m³)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商包装</t>
+    <t>开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装工场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文品名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +537,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -552,145 +554,145 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="S1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="W1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AG1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AJ1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0603_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0603_Export.xlsx
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>车种代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>收货方</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,6 +175,10 @@
   </si>
   <si>
     <t>供应商代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,9 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -554,145 +552,145 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="X1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AS1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0603_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0603_Export.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4FE739-E238-4FFA-942D-F6A5C7D6609B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发注工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内制工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,13 +176,17 @@
   </si>
   <si>
     <t>车型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发注工场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -211,7 +212,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,6 +244,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -291,7 +295,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -324,9 +328,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -359,6 +380,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -534,7 +572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -552,16 +590,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -576,7 +614,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>4</v>
@@ -585,7 +623,7 @@
         <v>5</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>15</v>
@@ -600,10 +638,10 @@
         <v>7</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>8</v>
@@ -612,13 +650,13 @@
         <v>9</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>10</v>
@@ -630,10 +668,10 @@
         <v>5</v>
       </c>
       <c r="AC1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>11</v>
@@ -648,7 +686,7 @@
         <v>14</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ1" s="2" t="s">
         <v>4</v>
@@ -657,40 +695,40 @@
         <v>5</v>
       </c>
       <c r="AL1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AS1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -701,7 +739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -714,7 +752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/SPPSApi/Doc/Template/FS0603_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0603_Export.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4FE739-E238-4FFA-942D-F6A5C7D6609B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -186,7 +185,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -295,7 +294,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,26 +327,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,23 +362,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -572,10 +537,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -614,52 +581,52 @@
         <v>6</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>4</v>
@@ -739,7 +706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -752,7 +719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
